--- a/data_call/415061327.xlsx
+++ b/data_call/415061327.xlsx
@@ -344,7 +344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
@@ -753,6 +753,150 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3M™ VHB™ GPH 060GF лента монтажная двусторонняя, основа - вспененныйакрил, адгезив акрил, 1080mm x 33m</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1012.24</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>складской</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3M™ VHB™ GPH 110GF лента монтажная двусторонняя, основа - вспененныйакрил, адгезив акрил, 1080mm x 33m</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1170.1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>складской</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3M™ VHB™ GPH 160GF лента монтажная двусторонняя, основа - вспененныйакрил, адгезив акрил, 1080mm x 33m</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1351</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>складской</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501+ ЛЕНТА МАСКИР. ОДНОСТ., ОСНОВА БУМ., АДГЕЗИВ КАУЧУК., БЕЖ.; 0048 ММХ 0055,0 М</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>нескладской / срок поставки 62 дн.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501+ ЛЕНТА МАСКИР. ОДНОСТ., ОСНОВА БУМ., АДГЕЗИВ КАУЧУК., БЕЖ.; 0048 ММХ 0055,0 М</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>нескладской / срок поставки 62 дн.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501+ ЛЕНТА МАСКИР. ОДНОСТ., ОСНОВА БУМ., АДГЕЗИВ КАУЧУК., БЕЖ.; 0048 ММХ 0055,0 М</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>нескладской / срок поставки 62 дн.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501+ ЛЕНТА МАСКИР. ОДНОСТ., ОСНОВА БУМ., АДГЕЗИВ КАУЧУК., БЕЖ.; 0048 ММХ 0055,0 М</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>нескладской / срок поставки 62 дн.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501+ ЛЕНТА МАСКИР. ОДНОСТ., ОСНОВА БУМ., АДГЕЗИВ КАУЧУК., БЕЖ.; 0048 ММХ 0055,0 М</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>нескладской / срок поставки 62 дн.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data_call/415061327.xlsx
+++ b/data_call/415061327.xlsx
@@ -344,7 +344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
@@ -897,6 +897,24 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501+ ЛЕНТА МАСКИР. ОДНОСТ., ОСНОВА БУМ., АДГЕЗИВ КАУЧУК., БЕЖ.; 0048 ММХ 0055,0 М</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>нескладской / срок поставки 62 дн.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data_call/415061327.xlsx
+++ b/data_call/415061327.xlsx
@@ -344,7 +344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
@@ -915,6 +915,42 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501+ ЛЕНТА МАСКИР. ОДНОСТ., ОСНОВА БУМ., АДГЕЗИВ КАУЧУК., БЕЖ.; 0048 ММХ 0055,0 М</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>нескладской / срок поставки 62 дн.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501+ ЛЕНТА МАСКИР. ОДНОСТ., ОСНОВА БУМ., АДГЕЗИВ КАУЧУК., БЕЖ.; 0048 ММХ 0055,0 М</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>нескладской / срок поставки 62 дн.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
